--- a/COBREX-CLI/issuesTracker.xlsx
+++ b/COBREX-CLI/issuesTracker.xlsx
@@ -8963,7 +8963,7 @@
   <dimension ref="A1:V279"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
